--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_3_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_3_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.30000000000052</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.523867411400985e-06</v>
+        <v>3.573784309984784e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>6.523867411400985e-06</v>
+        <v>3.573784309984784e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.78465676755026</v>
+        <v>48.47784524283492</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[30.74982060318122, 78.8194929319193]</t>
+          <t>[24.775595532183303, 72.18009495348655]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.542610669948765e-05</v>
+        <v>0.0001605449539556769</v>
       </c>
       <c r="O2" t="n">
-        <v>3.542610669948765e-05</v>
+        <v>0.0001605449539556769</v>
       </c>
       <c r="P2" t="n">
-        <v>1.729605565039425</v>
+        <v>1.415131825941348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.270500396288118]</t>
+          <t>[0.8365001460008861, 1.9937635058818097]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.913347561088301e-08</v>
+        <v>1.177259725659852e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>6.913347561088301e-08</v>
+        <v>1.177259725659852e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>60.122738612884</v>
+        <v>60.10512053761784</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.82300778223856, 74.42246944352944]</t>
+          <t>[46.27852204562325, 73.93171902961242]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.24991178202572e-11</v>
+        <v>2.815681021672845e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.24991178202572e-11</v>
+        <v>2.815681021672845e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.33553553553591</v>
+        <v>19.50882882882922</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.15755755755789</v>
+        <v>17.18994994995029</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.51351351351393</v>
+        <v>21.82770770770814</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.30000000000052</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.434087689990761e-06</v>
+        <v>0.002070520235338602</v>
       </c>
       <c r="I3" t="n">
-        <v>3.434087689990761e-06</v>
+        <v>0.002070520235338602</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.48361557012021</v>
+        <v>39.69344789302975</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[32.44364231071725, 88.52358882952316]</t>
+          <t>[13.377361102640506, 66.00953468341899]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.855276455792648e-05</v>
+        <v>0.003956517256510139</v>
       </c>
       <c r="O3" t="n">
-        <v>7.855276455792648e-05</v>
+        <v>0.003956517256510139</v>
       </c>
       <c r="P3" t="n">
-        <v>1.100658086843271</v>
+        <v>1.289342330302118</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.57865817027235]</t>
+          <t>[0.5094474573388847, 2.0692372032653505]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.040690725919504e-05</v>
+        <v>0.001741641781479508</v>
       </c>
       <c r="S3" t="n">
-        <v>3.040690725919504e-05</v>
+        <v>0.001741641781479508</v>
       </c>
       <c r="T3" t="n">
-        <v>67.46853335433224</v>
+        <v>52.5890995448656</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.54386874549239, 82.39319796317208]</t>
+          <t>[37.37180967567073, 67.80638941406046]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.012790513907021e-12</v>
+        <v>1.166163943189247e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>9.012790513907021e-12</v>
+        <v>1.166163943189247e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>20.86806806806849</v>
+        <v>20.01293293293332</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.94334334334372</v>
+        <v>16.88748748748781</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.79279279279326</v>
+        <v>23.13837837837884</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.30000000000052</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.940476934165659e-06</v>
+        <v>6.467752411420946e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.940476934165659e-06</v>
+        <v>6.467752411420946e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.33423355433342</v>
+        <v>70.60621771017875</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[32.062335142623965, 86.60613196604287]</t>
+          <t>[42.83598287876643, 98.37645254159108]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.965464552499689e-05</v>
+        <v>6.144433793098258e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>6.965464552499689e-05</v>
+        <v>6.144433793098258e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8868159442565782</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.4339737599553475, 1.3396581285578089]</t>
+          <t>[0.37107901213573147, 1.1258159859711165]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0002772963716184407</v>
+        <v>0.0002371930608366934</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002772963716184407</v>
+        <v>0.0002371930608366934</v>
       </c>
       <c r="T4" t="n">
-        <v>81.29343194501715</v>
+        <v>75.56160134981337</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[66.94971349365477, 95.63715039637952]</t>
+          <t>[61.36627328145536, 89.75692941817138]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>5.617728504603292e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>5.617728504603292e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>21.72912912912957</v>
+        <v>22.18058058058102</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.90570570570612</v>
+        <v>20.66826826826868</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.55255255255303</v>
+        <v>23.69289289289336</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.30000000000052</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000183254486820994</v>
+        <v>5.389167910818671e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000183254486820994</v>
+        <v>5.389167910818671e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>46.16661888789146</v>
+        <v>72.05076866433055</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.591460144633587, 73.74177763114933]</t>
+          <t>[41.72120798443669, 102.3803293442244]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001541830337934202</v>
+        <v>1.877267778205294e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001541830337934202</v>
+        <v>1.877267778205294e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7736053981812701</v>
+        <v>0.5471843060306538</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 1.3145002294299628]</t>
+          <t>[0.10692107129334438, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.006058774772514042</v>
+        <v>0.01600319140295392</v>
       </c>
       <c r="S5" t="n">
-        <v>0.006058774772514042</v>
+        <v>0.01600319140295392</v>
       </c>
       <c r="T5" t="n">
-        <v>63.58972308058472</v>
+        <v>68.12551167362334</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.40560060132577, 77.77384555984366]</t>
+          <t>[52.30048431035406, 83.95053903689262]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.151079231931362e-11</v>
+        <v>3.720379559979392e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.151079231931362e-11</v>
+        <v>3.720379559979392e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>22.18498498498544</v>
+        <v>22.9871471471476</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.00700700700742</v>
+        <v>21.2227827827832</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.36296296296346</v>
+        <v>24.75151151151201</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.14000000000033</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.589976707440989e-05</v>
+        <v>0.0001206579660029128</v>
       </c>
       <c r="I6" t="n">
-        <v>3.589976707440989e-05</v>
+        <v>0.0001206579660029128</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.45986303348132</v>
+        <v>42.48530303417934</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[25.645688781615277, 85.27403728534736]</t>
+          <t>[20.611683167852476, 64.3589229005062]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0005081019256254482</v>
+        <v>0.0003063770390481224</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0005081019256254482</v>
+        <v>0.0003063770390481224</v>
       </c>
       <c r="P6" t="n">
-        <v>0.735868549489501</v>
+        <v>0.1320789704211922</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.22013161736865428, 1.2516054816103477]</t>
+          <t>[-0.4842895582110396, 0.748447499053424]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.006170650697357782</v>
+        <v>0.6680976392579638</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006170650697357782</v>
+        <v>0.6680976392579638</v>
       </c>
       <c r="T6" t="n">
-        <v>68.71603885190015</v>
+        <v>57.54784241236789</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[53.229446608920604, 84.2026310948797]</t>
+          <t>[44.493689681398635, 70.60199514333715]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.556310635919544e-11</v>
+        <v>1.879674194071868e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.556310635919544e-11</v>
+        <v>1.879674194071868e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>21.31279279279309</v>
+        <v>22.594834834835</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.3313313313316</v>
+        <v>20.33073073073088</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.29425425425458</v>
+        <v>24.85893893893912</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.14000000000033</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.429914238443747e-05</v>
+        <v>1.54127873885912e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>7.429914238443747e-05</v>
+        <v>1.54127873885912e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>46.75491966074403</v>
+        <v>65.81491738830421</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[23.371669115327776, 70.13817020616028]</t>
+          <t>[35.988134434435125, 95.6417003421733]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.000214310389168082</v>
+        <v>5.699992462471215e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000214310389168082</v>
+        <v>5.699992462471215e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.4465527095192696</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.2956053147521933, 0.8868159442565782]</t>
+          <t>[-0.04402632347373192, 0.9371317425122712]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3192945136149059</v>
+        <v>0.07337009535387451</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3192945136149059</v>
+        <v>0.07337009535387451</v>
       </c>
       <c r="T7" t="n">
-        <v>57.70446045771065</v>
+        <v>72.19709739601922</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.06994705526232, 71.33897386015899]</t>
+          <t>[56.539032240258855, 87.85516255177959]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.026423804428305e-11</v>
+        <v>5.011102643948107e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>6.026423804428305e-11</v>
+        <v>5.011102643948107e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>23.0042842842846</v>
+        <v>21.43967967967984</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.73285285285314</v>
+        <v>19.63763763763778</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.27571571571607</v>
+        <v>23.24172172172189</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.14000000000033</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>6.188539469598187e-05</v>
+        <v>1.220658593981128e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>6.188539469598187e-05</v>
+        <v>1.220658593981128e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>55.47646392222972</v>
+        <v>52.04016951974446</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[23.710448186395652, 87.24247965806379]</t>
+          <t>[26.066566633515023, 78.0137724059739]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001008300312039134</v>
+        <v>0.0002088916856473055</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001008300312039134</v>
+        <v>0.0002088916856473055</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6855527512338089</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 1.2138686329185786]</t>
+          <t>[0.1320789704211922, 1.1132370364071935]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01214294840858998</v>
+        <v>0.0140227501178205</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01214294840858998</v>
+        <v>0.0140227501178205</v>
       </c>
       <c r="T8" t="n">
-        <v>72.16283061286308</v>
+        <v>52.7177873256778</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[56.13201346001394, 88.19364776571221]</t>
+          <t>[38.992733131901645, 66.44284151945396]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.020961093445294e-11</v>
+        <v>8.368596926544569e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.020961093445294e-11</v>
+        <v>8.368596926544569e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>21.5061061061064</v>
+        <v>20.79279279279294</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.47631631631659</v>
+        <v>18.99075075075089</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.53589589589622</v>
+        <v>22.594834834835</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_3_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_3_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.1800000000005</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.573784309984784e-05</v>
+        <v>9.859682403856596e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>3.573784309984784e-05</v>
+        <v>9.859682403856596e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.47784524283492</v>
+        <v>66.16491337889649</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[24.775595532183303, 72.18009495348655]</t>
+          <t>[44.77251126051554, 87.55731549727743]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001605449539556769</v>
+        <v>1.424106741421127e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001605449539556769</v>
+        <v>1.424106741421127e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.415131825941348</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 1.9937635058818097]</t>
+          <t>[1.3899739268135027, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.177259725659852e-05</v>
+        <v>1.40130129722138e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>1.177259725659852e-05</v>
+        <v>1.40130129722138e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>60.10512053761784</v>
+        <v>67.72438182140463</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.27852204562325, 73.93171902961242]</t>
+          <t>[54.815634670292766, 80.6331289725165]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.815681021672845e-11</v>
+        <v>8.992806499463768e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.815681021672845e-11</v>
+        <v>8.992806499463768e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>19.50882882882922</v>
+        <v>18.25381381381421</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.18994994995029</v>
+        <v>16.61761761761798</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.82770770770814</v>
+        <v>19.89001001001044</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.1800000000005</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002070520235338602</v>
+        <v>0.0002256280455663617</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002070520235338602</v>
+        <v>0.0002256280455663617</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>39.69344789302975</v>
+        <v>54.76606149314106</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[13.377361102640506, 66.00953468341899]</t>
+          <t>[23.032087565413278, 86.50003542086884]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.003956517256510139</v>
+        <v>0.001139307263292144</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003956517256510139</v>
+        <v>0.001139307263292144</v>
       </c>
       <c r="P3" t="n">
-        <v>1.289342330302118</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 2.0692372032653505]</t>
+          <t>[0.5346053564667317, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001741641781479508</v>
+        <v>0.0006592870732708977</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001741641781479508</v>
+        <v>0.0006592870732708977</v>
       </c>
       <c r="T3" t="n">
-        <v>52.5890995448656</v>
+        <v>68.96209217468129</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[37.37180967567073, 67.80638941406046]</t>
+          <t>[51.46278636717965, 86.46139798218292]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.166163943189247e-08</v>
+        <v>4.254065988362754e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.166163943189247e-08</v>
+        <v>4.254065988362754e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>20.01293293293332</v>
+        <v>20.70810810810856</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.88748748748781</v>
+        <v>18.04928928928968</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.13837837837884</v>
+        <v>23.36692692692743</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.1800000000005</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.467752411420946e-08</v>
+        <v>1.081563274496489e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>6.467752411420946e-08</v>
+        <v>1.081563274496489e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>70.60621771017875</v>
+        <v>58.32631598003824</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[42.83598287876643, 98.37645254159108]</t>
+          <t>[33.22032030783903, 83.43231165223744]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.144433793098258e-06</v>
+        <v>2.655217598590554e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>6.144433793098258e-06</v>
+        <v>2.655217598590554e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.748447499053424</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.1258159859711165]</t>
+          <t>[0.748447499053424, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0002371930608366934</v>
+        <v>5.251540676765032e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002371930608366934</v>
+        <v>5.251540676765032e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>75.56160134981337</v>
+        <v>56.25619076342017</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[61.36627328145536, 89.75692941817138]</t>
+          <t>[42.566093310473775, 69.94628821636657]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.617728504603292e-14</v>
+        <v>1.369497848457968e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>5.617728504603292e-14</v>
+        <v>1.369497848457968e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>22.18058058058102</v>
+        <v>20.55471471471516</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.66826826826868</v>
+        <v>18.61173173173214</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.69289289289336</v>
+        <v>22.49769769769819</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.1800000000005</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.389167910818671e-07</v>
+        <v>0.0002800930506255961</v>
       </c>
       <c r="I5" t="n">
-        <v>5.389167910818671e-07</v>
+        <v>0.0002800930506255961</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>72.05076866433055</v>
+        <v>49.66912694063881</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[41.72120798443669, 102.3803293442244]</t>
+          <t>[19.46933690254852, 79.8689169787291]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.877267778205294e-05</v>
+        <v>0.001829819288496903</v>
       </c>
       <c r="O5" t="n">
-        <v>1.877267778205294e-05</v>
+        <v>0.001829819288496903</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5471843060306538</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.10692107129334438, 0.9874475407679633]</t>
+          <t>[-0.09434212172942402, 1.1132370364071935]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01600319140295392</v>
+        <v>0.09614776423819027</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01600319140295392</v>
+        <v>0.09614776423819027</v>
       </c>
       <c r="T5" t="n">
-        <v>68.12551167362334</v>
+        <v>67.98185586669209</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[52.30048431035406, 83.95053903689262]</t>
+          <t>[52.4961557622199, 83.46755597116427]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.720379559979392e-11</v>
+        <v>2.121836040203107e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.720379559979392e-11</v>
+        <v>2.121836040203107e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>22.9871471471476</v>
+        <v>23.4691891891897</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.2227827827832</v>
+        <v>21.01489489489535</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.75151151151201</v>
+        <v>25.92348348348405</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.08000000000017</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001206579660029128</v>
+        <v>6.644540040856572e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001206579660029128</v>
+        <v>6.644540040856572e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.48530303417934</v>
+        <v>46.64145584943366</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.611683167852476, 64.3589229005062]</t>
+          <t>[24.73477055021418, 68.54814114865314]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0003063770390481224</v>
+        <v>9.404352079478429e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003063770390481224</v>
+        <v>9.404352079478429e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1320789704211922</v>
+        <v>-0.03773684869176908</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.4842895582110396, 0.748447499053424]</t>
+          <t>[-0.6478159025420389, 0.5723422051585008]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.6680976392579638</v>
+        <v>0.9014079946174909</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6680976392579638</v>
+        <v>0.9014079946174909</v>
       </c>
       <c r="T6" t="n">
-        <v>57.54784241236789</v>
+        <v>52.13369075376055</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.493689681398635, 70.60199514333715]</t>
+          <t>[38.20377636865227, 66.06360513886882]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.879674194071868e-11</v>
+        <v>1.635118707099537e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.879674194071868e-11</v>
+        <v>1.635118707099537e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>22.594834834835</v>
+        <v>0.1352552552552559</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.33073073073088</v>
+        <v>-2.051371371371377</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.85893893893912</v>
+        <v>2.321881881881889</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.08000000000017</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.54127873885912e-06</v>
+        <v>0.0001432672056511652</v>
       </c>
       <c r="I7" t="n">
-        <v>1.54127873885912e-06</v>
+        <v>0.0001432672056511652</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>65.81491738830421</v>
+        <v>46.95190175847662</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[35.988134434435125, 95.6417003421733]</t>
+          <t>[20.048619837817213, 73.85518367913602]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.699992462471215e-05</v>
+        <v>0.001015500970514616</v>
       </c>
       <c r="O7" t="n">
-        <v>5.699992462471215e-05</v>
+        <v>0.001015500970514616</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4465527095192696</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.04402632347373192, 0.9371317425122712]</t>
+          <t>[-0.22013161736865428, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.07337009535387451</v>
+        <v>0.207176139086275</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07337009535387451</v>
+        <v>0.207176139086275</v>
       </c>
       <c r="T7" t="n">
-        <v>72.19709739601922</v>
+        <v>67.41613209190515</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[56.539032240258855, 87.85516255177959]</t>
+          <t>[52.83993379129826, 81.99233039251206]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.011102643948107e-12</v>
+        <v>4.569677969357144e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>5.011102643948107e-12</v>
+        <v>4.569677969357144e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>21.43967967967984</v>
+        <v>21.14490490490498</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.63763763763778</v>
+        <v>18.98082082082089</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.24172172172189</v>
+        <v>23.30898898898907</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.08000000000017</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.220658593981128e-05</v>
+        <v>0.0003242359696117303</v>
       </c>
       <c r="I8" t="n">
-        <v>1.220658593981128e-05</v>
+        <v>0.0003242359696117303</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.04016951974446</v>
+        <v>57.76253380084347</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[26.066566633515023, 78.0137724059739]</t>
+          <t>[21.147312895659454, 94.37775470602749]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0002088916856473055</v>
+        <v>0.002685928145492511</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002088916856473055</v>
+        <v>0.002685928145492511</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6226580034141929</v>
+        <v>0.7610264486173479</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.1320789704211922, 1.1132370364071935]</t>
+          <t>[0.20755266780473036, 1.3145002294299655]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0140227501178205</v>
+        <v>0.00812984351523327</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0140227501178205</v>
+        <v>0.00812984351523327</v>
       </c>
       <c r="T8" t="n">
-        <v>52.7177873256778</v>
+        <v>63.51043769479517</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[38.992733131901645, 66.44284151945396]</t>
+          <t>[44.88966972465184, 82.1312056649385]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.368596926544569e-10</v>
+        <v>1.591153941937762e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>8.368596926544569e-10</v>
+        <v>1.591153941937762e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>20.79279279279294</v>
+        <v>19.79235235235242</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.99075075075089</v>
+        <v>17.80860860860867</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.594834834835</v>
+        <v>21.77609609609618</v>
       </c>
     </row>
   </sheetData>
